--- a/Компоненты УГО/Таблица для Symbol Wizard.xlsx
+++ b/Компоненты УГО/Таблица для Symbol Wizard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5986" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5946" uniqueCount="429">
   <si>
     <t>Group</t>
   </si>
@@ -1321,46 +1321,13 @@
     <t>-2.42mm</t>
   </si>
   <si>
-    <t>TXD</t>
+    <t>D</t>
   </si>
   <si>
-    <t>RXD</t>
+    <t>G</t>
   </si>
   <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>UD+</t>
-  </si>
-  <si>
-    <t>UD-</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>XO</t>
-  </si>
-  <si>
-    <t>CTS#</t>
-  </si>
-  <si>
-    <t>DSR#</t>
-  </si>
-  <si>
-    <t>RI#</t>
-  </si>
-  <si>
-    <t>DCD#</t>
-  </si>
-  <si>
-    <t>DTR#</t>
-  </si>
-  <si>
-    <t>RTS#</t>
-  </si>
-  <si>
-    <t>R232</t>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2128,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2169,7 @@
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -2214,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>117</v>
@@ -2253,16 +2220,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>118</v>
@@ -2304,16 +2271,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>13</v>
@@ -2360,8 +2327,8 @@
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
-        <v>4</v>
+      <c r="F6" s="14">
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>117</v>
@@ -2400,19 +2367,19 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C7" s="14">
         <v>5</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>117</v>
@@ -2450,19 +2417,19 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C8" s="14">
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>117</v>
@@ -2495,297 +2462,167 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C9" s="14">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="14">
-        <v>8</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="14">
-        <v>9</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="14">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" s="14">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="3">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C14" s="14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>437</v>
-      </c>
-      <c r="C15" s="14">
-        <v>13</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" s="14">
-        <v>14</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="14">
-        <v>15</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
